--- a/Time plans/week 4.xlsx
+++ b/Time plans/week 4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Tasks</t>
   </si>
@@ -69,13 +69,61 @@
   </si>
   <si>
     <t>Stencil help</t>
+  </si>
+  <si>
+    <t>Deliverables:</t>
+  </si>
+  <si>
+    <t>Seb:</t>
+  </si>
+  <si>
+    <t>Working Radio interface</t>
+  </si>
+  <si>
+    <t>Working keypad</t>
+  </si>
+  <si>
+    <t>Stuart:</t>
+  </si>
+  <si>
+    <t>Working LCD Display</t>
+  </si>
+  <si>
+    <t>Phil:</t>
+  </si>
+  <si>
+    <t>For lab session:</t>
+  </si>
+  <si>
+    <t>All measurements for CAD design</t>
+  </si>
+  <si>
+    <t>Working solder stencil process</t>
+  </si>
+  <si>
+    <t>Outside lab session:</t>
+  </si>
+  <si>
+    <t>CAD Design for front pannel</t>
+  </si>
+  <si>
+    <t>PCB Review</t>
+  </si>
+  <si>
+    <t>PCB Design</t>
+  </si>
+  <si>
+    <t>PCB Design &amp; review</t>
+  </si>
+  <si>
+    <t>Implement keypad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +140,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -412,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -420,9 +476,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,11 +499,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,21 +527,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -551,6 +587,65 @@
     <xf numFmtId="20" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -844,239 +939,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26">
+      <c r="B1" s="23">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C1" s="27">
+      <c r="C1" s="24">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D1" s="28">
+      <c r="D1" s="25">
         <v>0.44444444444444398</v>
       </c>
-      <c r="E1" s="37">
+      <c r="E1" s="29">
         <v>0.45833333333333298</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="30">
         <v>0.47222222222222199</v>
       </c>
-      <c r="G1" s="38">
+      <c r="G1" s="30">
         <v>0.48611111111111099</v>
       </c>
-      <c r="H1" s="38">
+      <c r="H1" s="30">
         <v>0.5</v>
       </c>
-      <c r="I1" s="38">
+      <c r="I1" s="30">
         <v>0.51388888888888895</v>
       </c>
-      <c r="J1" s="39">
+      <c r="J1" s="31">
         <v>0.52777777777777801</v>
       </c>
-      <c r="K1" s="37">
+      <c r="K1" s="29">
         <v>0.58333333333333337</v>
       </c>
-      <c r="L1" s="38">
+      <c r="L1" s="30">
         <v>0.59722222222222299</v>
       </c>
-      <c r="M1" s="38">
+      <c r="M1" s="30">
         <v>0.61111111111111205</v>
       </c>
-      <c r="N1" s="38">
+      <c r="N1" s="30">
         <v>0.625</v>
       </c>
-      <c r="O1" s="38">
+      <c r="O1" s="30">
         <v>0.63888888888888895</v>
       </c>
-      <c r="P1" s="38">
+      <c r="P1" s="30">
         <v>0.65277777777777801</v>
       </c>
-      <c r="Q1" s="38">
+      <c r="Q1" s="30">
         <v>0.66666666666666696</v>
       </c>
-      <c r="R1" s="38">
+      <c r="R1" s="30">
         <v>0.68055555555555602</v>
       </c>
-      <c r="S1" s="38">
+      <c r="S1" s="30">
         <v>0.69444444444444497</v>
       </c>
-      <c r="T1" s="40">
+      <c r="T1" s="32">
         <v>0.70833333333333404</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="11"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="55"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="47"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="49"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="41"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="49"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="41"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="30"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="27"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="52"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="44"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="10"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1085,101 +1180,249 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="8"/>
+      <c r="T8" s="7"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="46" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="13"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="19"/>
-    </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
-    </row>
+      <c r="B10" s="12"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="13"/>
+    </row>
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="17"/>
+    </row>
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="P14" s="3"/>
-      <c r="Q14" s="31" t="s">
+      <c r="A14" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68"/>
+    </row>
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="R14" s="31"/>
-      <c r="S14" s="32"/>
-    </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="P15" s="2"/>
-      <c r="Q15" s="33" t="s">
+      <c r="R15" s="48"/>
+      <c r="S15" s="49"/>
+    </row>
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="58"/>
+      <c r="B16" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="55"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="R15" s="33"/>
-      <c r="S15" s="34"/>
-    </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="P16" s="36"/>
-      <c r="Q16" s="35" t="s">
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="R16" s="31"/>
-      <c r="S16" s="32"/>
-    </row>
-    <row r="17" spans="16:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="P17" s="25" t="s">
+      <c r="R17" s="48"/>
+      <c r="S17" s="49"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
+      <c r="P18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q17" s="31" t="s">
+      <c r="Q18" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="31"/>
-      <c r="S17" s="32"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="49"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="59"/>
+      <c r="B19" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="Q14:S14"/>
+  <mergeCells count="16">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H15:M15"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="Q16:S16"/>
     <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Time plans/week 4.xlsx
+++ b/Time plans/week 4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\FM\Time plans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stuart\OneDrive\Documents\GitHub\FM\Time plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,12 +186,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -203,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -464,11 +458,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -485,18 +490,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -569,6 +566,15 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,74 +584,76 @@
     <xf numFmtId="20" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,503 +934,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V19"/>
+  <dimension ref="B1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="21" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23">
+      <c r="C2" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C1" s="24">
+      <c r="D2" s="20">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D1" s="25">
+      <c r="E2" s="21">
         <v>0.44444444444444398</v>
       </c>
-      <c r="E1" s="29">
+      <c r="F2" s="25">
         <v>0.45833333333333298</v>
       </c>
-      <c r="F1" s="30">
+      <c r="G2" s="26">
         <v>0.47222222222222199</v>
       </c>
-      <c r="G1" s="30">
+      <c r="H2" s="26">
         <v>0.48611111111111099</v>
       </c>
-      <c r="H1" s="30">
+      <c r="I2" s="26">
         <v>0.5</v>
       </c>
-      <c r="I1" s="30">
+      <c r="J2" s="26">
         <v>0.51388888888888895</v>
       </c>
-      <c r="J1" s="31">
+      <c r="K2" s="27">
         <v>0.52777777777777801</v>
       </c>
-      <c r="K1" s="29">
+      <c r="L2" s="25">
         <v>0.58333333333333337</v>
       </c>
-      <c r="L1" s="30">
+      <c r="M2" s="26">
         <v>0.59722222222222299</v>
       </c>
-      <c r="M1" s="30">
+      <c r="N2" s="26">
         <v>0.61111111111111205</v>
       </c>
-      <c r="N1" s="30">
+      <c r="O2" s="26">
         <v>0.625</v>
       </c>
-      <c r="O1" s="30">
+      <c r="P2" s="26">
         <v>0.63888888888888895</v>
       </c>
-      <c r="P1" s="30">
+      <c r="Q2" s="26">
         <v>0.65277777777777801</v>
       </c>
-      <c r="Q1" s="30">
+      <c r="R2" s="26">
         <v>0.66666666666666696</v>
       </c>
-      <c r="R1" s="30">
+      <c r="S2" s="26">
         <v>0.68055555555555602</v>
       </c>
-      <c r="S1" s="30">
+      <c r="T2" s="26">
         <v>0.69444444444444497</v>
       </c>
-      <c r="T1" s="32">
+      <c r="U2" s="28">
         <v>0.70833333333333404</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="13"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="48"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="17"/>
-    </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="63" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="48"/>
+    </row>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="13"/>
+    </row>
+    <row r="14" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="C15" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="65" t="s">
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68"/>
-    </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="58" t="s">
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="57"/>
+    </row>
+    <row r="16" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="C16" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="54" t="s">
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="48" t="s">
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="R15" s="48"/>
-      <c r="S15" s="49"/>
-    </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="58"/>
-      <c r="B16" s="60" t="s">
+      <c r="S16" s="60"/>
+      <c r="T16" s="61"/>
+    </row>
+    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="45"/>
+      <c r="C17" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="54" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="55"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="50" t="s">
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="59"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="50"/>
-      <c r="S16" s="51"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="58" t="s">
+      <c r="S17" s="62"/>
+      <c r="T17" s="63"/>
+    </row>
+    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="C18" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="54" t="s">
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="52" t="s">
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="59"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="48"/>
-      <c r="S17" s="49"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="58" t="s">
+      <c r="S18" s="60"/>
+      <c r="T18" s="61"/>
+    </row>
+    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="C19" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="54" t="s">
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="55"/>
-      <c r="P18" s="22" t="s">
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="59"/>
+      <c r="Q19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q18" s="48" t="s">
+      <c r="R19" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="48"/>
-      <c r="S18" s="49"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="59"/>
-      <c r="B19" s="62" t="s">
+      <c r="S19" s="60"/>
+      <c r="T19" s="61"/>
+    </row>
+    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="46"/>
+      <c r="C20" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="56" t="s">
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="57"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Time plans/week 4.xlsx
+++ b/Time plans/week 4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stuart\OneDrive\Documents\GitHub\FM\Time plans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\FM\Time plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -153,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +196,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -473,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -596,18 +614,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -620,40 +660,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,7 +970,7 @@
   <dimension ref="B1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,16 +1057,16 @@
       <c r="I3" s="5"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="72"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
@@ -1230,7 +1263,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="73"/>
+      <c r="L11" s="55"/>
       <c r="M11" s="11"/>
       <c r="N11" s="44"/>
       <c r="O11" s="44"/>
@@ -1270,152 +1303,159 @@
       <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="55" t="s">
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="57"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="65"/>
     </row>
     <row r="16" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="58" t="s">
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="59"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="67"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="60" t="s">
+      <c r="R16" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="S16" s="60"/>
-      <c r="T16" s="61"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
     </row>
     <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="45"/>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="58" t="s">
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="80"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="62" t="s">
+      <c r="R17" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="S17" s="62"/>
-      <c r="T17" s="63"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="59"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="58" t="s">
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="59"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="80"/>
       <c r="Q18" s="24"/>
-      <c r="R18" s="64" t="s">
+      <c r="R18" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="60"/>
-      <c r="T18" s="61"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="57"/>
     </row>
     <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="58" t="s">
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="59"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="67"/>
       <c r="Q19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="R19" s="60" t="s">
+      <c r="R19" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="S19" s="60"/>
-      <c r="T19" s="61"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="57"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="46"/>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53" t="s">
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="54"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I16:N16"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R18:T18"/>
@@ -1425,13 +1465,6 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
